--- a/Testdata/TC_45.xlsx
+++ b/Testdata/TC_45.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>ER0AAB+LCAAAAAAAAAOlWVtvG8cV/isLPrVAqV2Ski0Jow14k0KUEgWSqqy8FMPdkTjVXtidWUl8S4EEKdIURVE4RXpFn1IUqGu0CZDavfyXwJLdp/6FnrnsjaRirmoI1s65zJw5cy7fjNA7N75nXJGI0TDYq9Q2rIpBAid0aXCxV4n5ebX2qPKOjbo3DvGOcYR9wkHYAK2A7d4wuleZcj7bNc3r6+uN68ZGGF2YdcuqmU8O+yNnSnxcpQHjOHBIJdVy365VsVHb9Q8Jxy7mWGnuVXqj3kabUKcDtEMc4AsSbbRiRgPCWDfglFPChGZEMCftzuH31Mbs+sajjRoyl+iZZCumnqvkCpKKruVgWTKmPrHrVm27am1XG7WxtbPb2NptgNZj671EMRVEfcz4iERX1JGEEcf+TKpb242atdPYasBqK4VgrswBNhp47pBcUUbcNvE8Vsojpj7ApsNh1+WcaSEzp6snergJBxGeTceUe6ScGcPDluEH2pZsEhvthxFxwH8PMumIXA8i7dbxrA/c8ZRGfN7B89JznTASDWbCSeVUbdQJA970SMRPZnDWxIVQAIbNo5gg8x5mptShzIFvGsTEtc+xx/JKBSY6DaNLNsMOOYI8NsUc14EXYhcCjlPGqZMtusRAx1E4gxlh8VboufswqxZewUhn7gXgYrFsKwwvM+tWMZE8VXm+cKY+5on4Eh2NpuH1IPDmo3jCnIhOiNtpJdIreUgkpNZux4yHPliRkZCi5Shz+AcJuEhGHeJQH3vHHjiR2Q2YpUBAzZiH55S3Qy/2A5bYtEBFp7CjMblJd5iO0QAONxBOD4NesDDLSl5RYxheJ0e4TJdOyJGbzElPZJmzKN0Bmg6OZYY8EbHLfepBf8ifRY5ajIrRlBC+MiQUB4lSuC86jt30PGRmQwRhCaENZtgWNI2q/Blb1q78gWVTNuoG7v1yCRMdxf5gAul7JTdk14C3QEKwBa/l4eASqKeUT4+aiekrOEht+F75ZR6CRJ15eC7JqVPyNNQLHC92icr/XnAuI1LYpk7lXjZaIvUhpW2Eg/l4PoMyzOguh4+9CjTmXcYjaP0V2wnjgEdzUSiQqUXfpsPiSSAXwN7aOucR+WEMiGO+HwdOO3TXX81V3jkJKF/fwjCOVPVbX0V6TxTCmHWIKCmyxq+t75TZE4tKifsB8cOAOut7G5wsrHcfsBGWZNXaGkTl19ryHrRx1eVErq+tFgFchL5WapkmY6FDZbDq9HBz+uY9KdMh5zj2AKpx6KgXaWFeJKMmu1yUyZPQSeQlBc8WQJgBEnZcf8MBrCDQ3oYT+oJgAgA9HSEzLy8Aj0O6wUUfBxcxQIq0rizS03Ir2uE4wgET20kRxELlXS2EkjqlkI29XOyQuSCCxsSfhRH2DsEndF9HnEZGADoOMZ/qETQxjziJf81MNdUqGpXY/DYx2Y7UDkSu6wq5QJRCIj4V3M5kMhoSWzyEjPTa2KOTSBXUpGmv4sFZZTAwKb1icyUhYeJ+uHJBn/0umQscng00XUZrLWGo2BU11B4NN7frW1ajDhhGjJHc8ZBgz+hCHnNi9IIrwrgParvGkDDqwhfF3q7xLpkQCv1Pukh3oNLaeT20n5R4aUoT7C1SigKALC4odJBlwZSTKdhnBEfePCeottoPHZC7+/G/b3/z/NWLz+8+fvrmyw/++49fvfrnz26ffQgfd3/92+0nv1TbVMJojCcekQaNW9vbVmMT4iwlIeFcU4JgN3a4pJ2dSeybjpG+wslBu9trH/RbspSkxERddRNT3A7nYZwNR2oTciF5pGYSCUrEHielSY8L3Fx3ssVt7YoUpfP8+xSVL16//Pz1yz/fq60dlsGs2s7OVrVWfysKg3tvbUkuRWH9QvkXwptVa6tar+eEF2TQUNX+1E891xbXaqvesGppGXfTQF4ltMjSM43xhbmgp0hthYzSEMiPE6YM/DGkSMpWqZAb6BD98idv/vK0IKW9qynFWcA4iWDEYmYykFMfDcfGaHAybHeNcXck4iTj5eTU5N8grFdP86kQVEEQY+87BvR16GNGBe4+FSM8Nwh2psYcMjGXh4VgW0VVCz1wykUrD6IwnqkTySlk1BWSaTVZqbGi1kie9OdS0clYK8SVrbd//2KVgt5IJ8Oy6UtHnoYKHEXK8XXWfvavV1999OrFi7vnP7/96keFGfQ66QMAxDlkU36Yhj2UPN1vFijodCSdeWl9P9dfNFHcoY5DGnBm1x7J65MeIVCtidnkb9TzoeXJiaW/gL5AQe9i1r3hOrHtI2QWCWDnDEO3DbNbZkpQNTzz639++7u7X39x9+nzNx/96fbjP95+8unrl79/8+wPKuvunj6/++kzXeUXG4G0RdxdFf4z5EuIY4hsNETvNr5+/xdGEHIDIIcRy4r09fuf5SYThkpwks0MaC41pGjCkmheWegZOVNSGwp6qYoCAG3RwhqphG5i4Yw62SLvVcVUIu8k41u9cTVmxAgBTX0bdlIUzpTX1dMqqqUeP7bqtbrmKmvEFiaY5Vx/4IUTABkJQz41LIgUtL5ZIZOV6x30B61mPxNRRgwil0QiDNUHSiClaCk9loySUMtRgAvAz4k98Tq0JLbMSmfOlTFTv7KcN11R/la/UhQkUDuOIgWIAv1qP4pnAIaTx7j7+fKBMod/jxRWzSPibNzrFPkwznGhERbZgiD5sjRplipTPSZedBScPRKuyYbAKzxqgjv0w7xCWleAKyNT1J1uFIXRyuKTcRKxQ0DSUFHMzOOpjDxThbrd7KwSQlLw0g916dM7DDvEI7zcq7WZaR+GVw/WhbMvq9pjA8/Vzix39Ujdkk2Qf7oXgfL/vtyrYGtGEQAr8dRX+qk9ubMO4apb0hq1FakoboCwun4L36cR409EJdBfinKWUs4UQn1ib9YVDn2iCGe2/gsOCJj52c2CmUnqcvUHlNDrU5+WvBZaSX4XJwFfzmYKwvXKRYpoLUfkBgBmbgYoipMfQNtQTyhlZlMBC7U01RfPloxeTHlZwx5PMHHJxKo6E1KvbrrWdnWHkEa1VoP/sVOvW9aWePTUk0PloOS65CJmcmDZHzbt/wGUZb71ER0AAA==</t>
+          <t>Ch8AAB+LCAAAAAAAAAOlWVtvG8cV/isLPrVAqV0uKccURhtQJOUQpS4Q6crKS7HcHUpTDWfZnVlJfEuBFinSFEVROEV6RZ9SFKhrtAmQ2r38l8CS3af+hZ657I2kYq1qCPDOuc2ZM2fO+WaI3r2aUesCx5xEbLvW2HBqFmZBFBJ2ul1LxLTeeFB710P9qwDTQz/2Z1iAsAVajG9dcbJdOxNivmXbl5eXG5fNjSg+tV3HadhP9oaj4AzP/DphXPgswLVMK3y7Vs1D3XC2h4Uf+sLXmtu1wWiw0cUk6AFtz2f+KY43dhJOGOa8zwQRBHOpGWNf4G5v7zt6YZ678WCjgewVei65kxAaarmSpKYbOZgWj8kMe67jOnXnYd1tjZ321mZ7q9XeaGy23k8VM0E09LkY4fiCBIowEv5srtSdh27LaW+2W21krxUCW3kAPHRAwyN8QTgOu5hSXikittnATiBg1dWC6SC7oGsM3d+FR7E/PxsTQXFV9d0oxgEE6l5z7+PLg9jEbzwfAnd8RmKx6PmLyrYecxwfzGU0qql6qBcx0aE4Fo/nsKk4hD0HhifiBCP7Fmau1CM8gG/CEhx6U5/yolKJiY6j+JzP/QDvw4G1pY1LRiM/hMwShAsS5JOuMNBhHM3BIky+E9FwF6wa4TWMzPKAQYjltDtRdJ57t46JVA6obIA9nfkiFV+ho9FZdHnA6GKUTHgQkwkOezup9FoekifPaHcTLqIZeJGTkKYVKAv4BydtmYx6OCAznx5SCCL3mmClRECdRERTIroRTWaMpz4tUdExrGiMr7IVZmN0AJvLZNAjNmBLVtbyyhpH0WW6hat0FYQCucODbEdWOcvSPaCZ5FhlqB2Rq9wlFBpBcS8K1HJWjM4wFmtTQnOQrHm7srV4HUqRnQ8RpCWkNrjhOdAd6upv7Dhb6g+mzdioz8Lb5VIm2k9mBxM4vhdqQV4DeEskBEugO9Rn50A9JuJsv5O6voaD9IJvlV/lITioc+ovFDkLSpGGBiygSYj1+R+wqcpI6ZvelVvZaIU0hCPtIZ8txos51FtOtgR8bNegA29xEUOPr3lBlDARL2ShQLYRfZsOTyZMTeDTO+tMY/z9BKDFYjdhQTcK7z5bqKPzmBFxdw+jJNbV7+4qKnqyECa8h2VJUTX+zvpBlTXxuJL4jOFZxEhw92hDkKX34T0WwtNTdWcNrM/XneUptHHd5eRZv7NaDLgQ+lqlaTqcRwFRyWqOR1jQt285Mj089RMKmExARz3NCvMyGXX4+bJMkYQexzQteJ5EvBwgbxDONgLAChLWbQTRTBJsQJrHI2QX5SXgCXCfnQ59dpoApMjqyjI9K7eyHY5jn3G5nAxBLFXe9UIorVMa2XirxQ7ZSyJojGfzKPbpHsSE7JqMM8gIQMeeL87MCJoYxUEaXztXzbTKTqU+v01MtSO9AnnWTYVcIiohmZ8aV+cyOQ3JJe7BiaRdn5JJrAtq2rTX8WCvchiYll65uIqQMA0/3K2gz34bLyTgzgeGrrK1kTJ07soa6o2OWg/dTafpAoaRY6RWfIR9avXhHAtsDdgF5mIGalvWEeYkhC/i0y3rPTzBBPqfCpHpQJW1i3poNy3xypUO+FumlAUAWZwS6CCrghknV/BOsB/TRUFQL3UYBSB38+N/X//m+asXn9189PTNFz/87z9+9eqfP7t+9iP4uPnr364//qVephZGY39CsXJovPPwodNsQZ5lJCSDaysQHCaBULSTE4V9szEydzU16PYH3UfDHVVKMmKqrruJLa+BiyjJhyO9CDWR2lI7zQQt4o3T0mTGJW6hO3nyWnaBy9JF/m2KOhavX372+uWfb9U2ActhVqPd3qw33LeiMNdpNFbkMhQ2LJV/KdyqO5t11y0IL8mgI137szgNQq/ZcNqO23QaWRkPs0ReJ7TMMpbG/qm9pKdJXY2MshQojlOmSvwxHJGMrY9CYWBS9IufvPnL05KUia6hlK2AcwrByMnsdKBM7x+NrdHB46Nu3xr3RzJPcl5BThv/GmEze3aeSknFWOLTb1nQ16GPWTW4+9SsaGphPzizFnASC+ewlGzrqHqie5pc9vJRHCVzvSMFhZy6RjKrJms11tQaxVPxXCk6OWuNuPb1+u+fr1MwC+nlWNY72tuxZizLS0VDJY4mFfjm1H76r1dffvjqxYub5z+//vIHJQtmnuwBAPIcTlNxmKU9lDzTb5Yo6HikgnnufLfQXwxR3qEOI8IE9xoP1PXJjBCoNqQ19T8azKDlKcMqXkBfoqD3fN6/EuZge/vILhPAz7kP3TbKb5kZQdfwPK7/+e3vbn79+c0nz998+Kfrj/54/fEnr1/+/s2zP+hTd/P0+c1Pn5kqv9wIlC/y7qrxn6VeQgJLnkZL9m7rqw9+YbFIWAA5rERVpK8++LRgTDqqwEluGdBc5kjZhRXRorLUswquZD6U9DIVDQC6soU1MwnTxKI5CfJJ3q9LU/LcKcY3BuN6wrEVAZr6JqykLJwr31XPqOiWeviO4zZcw9XeyCVMfF4I/SMaTQBkpAz11LAkUtL6eoVcVs33aHiw0xnmItqJgzjEsUxD/YEGPAWVaXoVKMAFsBckVL4IrYitslD6VShdtnlZmXZCWfLWv0yUJFA3iWMNgph5kh8lcwDA6QPc7Xz1KFnAvPsanxZRcD4e9Mp8GBe40PzKbElQfFWODEuXpgGXrzgawu7L0ORD4JUeMiEc5tVdo6sLwJKxLWtNP46jeG3ByTmp2B6gZ6gidh7xTMaWU2qkHeZ7lRLSIpd96IueWWHUwxSLyk/SqfZedHFvXdj7qqoDfkBDE8xq140sLLmB4ru8TJSqznTiGGCTfMir/JA+JOx8UG31njMJnKbvuNNwMtlsvtMOHDx5MGmEbdyctjYB5Wmj8vYpTcibi7y7VZsEzJTV8yv2EVy6K1rTAVaK8i4KkVIH0hT2bIx2SczFE1mizJemnGSUEw2dn3gtVwPkJ5pwIh3WH+bHGjOZXfI6rS9C/4QT0SGZkYr3VSctQmUjkAbzucaWVTcUet4+vgLkW7AA1XryPehn+m2nijV9qqDIZ/qprVEyqWzOTpUPgS8T637a/RBw2f211Q8ihP4fDijkdV8TA8bJ6Zmouq9uu93ED7Bbd6dBUG/BoA7deFIP/Wm74TjTZrjpysdsYxy6A8GXFSeRPYVwuFdU17OXftH2/gdbtO+uCh8AAA==</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="166" formatCode="###0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -464,7 +464,7 @@
       </c>
       <c r="K1" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="L1" s="2" t="inlineStr">
@@ -734,4 +734,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>2</InitRow>
+          <InitCol>1</InitCol>
+          <EndRow>2</EndRow>
+          <EndCol>43</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{625A7808-CC1A-4CC9-8330-A5E540A2B853}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_45.xlsx
+++ b/Testdata/TC_45.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Ch8AAB+LCAAAAAAAAAOlWVtvG8cV/isLPrVAqV0uKccURhtQJOUQpS4Q6crKS7HcHUpTDWfZnVlJfEuBFinSFEVROEV6RZ9SFKhrtAmQ2r38l8CS3af+hZ657I2kYq1qCPDOuc2ZM2fO+WaI3r2aUesCx5xEbLvW2HBqFmZBFBJ2ul1LxLTeeFB710P9qwDTQz/2Z1iAsAVajG9dcbJdOxNivmXbl5eXG5fNjSg+tV3HadhP9oaj4AzP/DphXPgswLVMK3y7Vs1D3XC2h4Uf+sLXmtu1wWiw0cUk6AFtz2f+KY43dhJOGOa8zwQRBHOpGWNf4G5v7zt6YZ678WCjgewVei65kxAaarmSpKYbOZgWj8kMe67jOnXnYd1tjZ321mZ7q9XeaGy23k8VM0E09LkY4fiCBIowEv5srtSdh27LaW+2W21krxUCW3kAPHRAwyN8QTgOu5hSXikittnATiBg1dWC6SC7oGsM3d+FR7E/PxsTQXFV9d0oxgEE6l5z7+PLg9jEbzwfAnd8RmKx6PmLyrYecxwfzGU0qql6qBcx0aE4Fo/nsKk4hD0HhifiBCP7Fmau1CM8gG/CEhx6U5/yolKJiY6j+JzP/QDvw4G1pY1LRiM/hMwShAsS5JOuMNBhHM3BIky+E9FwF6wa4TWMzPKAQYjltDtRdJ57t46JVA6obIA9nfkiFV+ho9FZdHnA6GKUTHgQkwkOezup9FoekifPaHcTLqIZeJGTkKYVKAv4BydtmYx6OCAznx5SCCL3mmClRECdRERTIroRTWaMpz4tUdExrGiMr7IVZmN0AJvLZNAjNmBLVtbyyhpH0WW6hat0FYQCucODbEdWOcvSPaCZ5FhlqB2Rq9wlFBpBcS8K1HJWjM4wFmtTQnOQrHm7srV4HUqRnQ8RpCWkNrjhOdAd6upv7Dhb6g+mzdioz8Lb5VIm2k9mBxM4vhdqQV4DeEskBEugO9Rn50A9JuJsv5O6voaD9IJvlV/lITioc+ovFDkLSpGGBiygSYj1+R+wqcpI6ZvelVvZaIU0hCPtIZ8txos51FtOtgR8bNegA29xEUOPr3lBlDARL2ShQLYRfZsOTyZMTeDTO+tMY/z9BKDFYjdhQTcK7z5bqKPzmBFxdw+jJNbV7+4qKnqyECa8h2VJUTX+zvpBlTXxuJL4jOFZxEhw92hDkKX34T0WwtNTdWcNrM/XneUptHHd5eRZv7NaDLgQ+lqlaTqcRwFRyWqOR1jQt285Mj089RMKmExARz3NCvMyGXX4+bJMkYQexzQteJ5EvBwgbxDONgLAChLWbQTRTBJsQJrHI2QX5SXgCXCfnQ59dpoApMjqyjI9K7eyHY5jn3G5nAxBLFXe9UIorVMa2XirxQ7ZSyJojGfzKPbpHsSE7JqMM8gIQMeeL87MCJoYxUEaXztXzbTKTqU+v01MtSO9AnnWTYVcIiohmZ8aV+cyOQ3JJe7BiaRdn5JJrAtq2rTX8WCvchiYll65uIqQMA0/3K2gz34bLyTgzgeGrrK1kTJ07soa6o2OWg/dTafpAoaRY6RWfIR9avXhHAtsDdgF5mIGalvWEeYkhC/i0y3rPTzBBPqfCpHpQJW1i3poNy3xypUO+FumlAUAWZwS6CCrghknV/BOsB/TRUFQL3UYBSB38+N/X//m+asXn9189PTNFz/87z9+9eqfP7t+9iP4uPnr364//qVephZGY39CsXJovPPwodNsQZ5lJCSDaysQHCaBULSTE4V9szEydzU16PYH3UfDHVVKMmKqrruJLa+BiyjJhyO9CDWR2lI7zQQt4o3T0mTGJW6hO3nyWnaBy9JF/m2KOhavX372+uWfb9U2ActhVqPd3qw33LeiMNdpNFbkMhQ2LJV/KdyqO5t11y0IL8mgI137szgNQq/ZcNqO23QaWRkPs0ReJ7TMMpbG/qm9pKdJXY2MshQojlOmSvwxHJGMrY9CYWBS9IufvPnL05KUia6hlK2AcwrByMnsdKBM7x+NrdHB46Nu3xr3RzJPcl5BThv/GmEze3aeSknFWOLTb1nQ16GPWTW4+9SsaGphPzizFnASC+ewlGzrqHqie5pc9vJRHCVzvSMFhZy6RjKrJms11tQaxVPxXCk6OWuNuPb1+u+fr1MwC+nlWNY72tuxZizLS0VDJY4mFfjm1H76r1dffvjqxYub5z+//vIHJQtmnuwBAPIcTlNxmKU9lDzTb5Yo6HikgnnufLfQXwxR3qEOI8IE9xoP1PXJjBCoNqQ19T8azKDlKcMqXkBfoqD3fN6/EuZge/vILhPAz7kP3TbKb5kZQdfwPK7/+e3vbn79+c0nz998+Kfrj/54/fEnr1/+/s2zP+hTd/P0+c1Pn5kqv9wIlC/y7qrxn6VeQgJLnkZL9m7rqw9+YbFIWAA5rERVpK8++LRgTDqqwEluGdBc5kjZhRXRorLUswquZD6U9DIVDQC6soU1MwnTxKI5CfJJ3q9LU/LcKcY3BuN6wrEVAZr6JqykLJwr31XPqOiWeviO4zZcw9XeyCVMfF4I/SMaTQBkpAz11LAkUtL6eoVcVs33aHiw0xnmItqJgzjEsUxD/YEGPAWVaXoVKMAFsBckVL4IrYitslD6VShdtnlZmXZCWfLWv0yUJFA3iWMNgph5kh8lcwDA6QPc7Xz1KFnAvPsanxZRcD4e9Mp8GBe40PzKbElQfFWODEuXpgGXrzgawu7L0ORD4JUeMiEc5tVdo6sLwJKxLWtNP46jeG3ByTmp2B6gZ6gidh7xTMaWU2qkHeZ7lRLSIpd96IueWWHUwxSLyk/SqfZedHFvXdj7qqoDfkBDE8xq140sLLmB4ru8TJSqznTiGGCTfMir/JA+JOx8UG31njMJnKbvuNNwMtlsvtMOHDx5MGmEbdyctjYB5Wmj8vYpTcibi7y7VZsEzJTV8yv2EVy6K1rTAVaK8i4KkVIH0hT2bIx2SczFE1mizJemnGSUEw2dn3gtVwPkJ5pwIh3WH+bHGjOZXfI6rS9C/4QT0SGZkYr3VSctQmUjkAbzucaWVTcUet4+vgLkW7AA1XryPehn+m2nijV9qqDIZ/qprVEyqWzOTpUPgS8T637a/RBw2f211Q8ihP4fDijkdV8TA8bJ6Zmouq9uu93ED7Bbd6dBUG/BoA7deFIP/Wm74TjTZrjpysdsYxy6A8GXFSeRPYVwuFdU17OXftH2/gdbtO+uCh8AAA==</t>
+          <t>ER0AAB+LCAAAAAAAAAOlWVtvG8cV/isLPrVAqV2Ski0Jow14k0KUEgWSqqy8FMPdkTjVXtidWUl8S4EEKdIURVE4RXpFn1IUqGu0CZDavfyXwJLdp/6FnrnsjaRirmoI1s65zJw5cy7fjNA7N75nXJGI0TDYq9Q2rIpBAid0aXCxV4n5ebX2qPKOjbo3DvGOcYR9wkHYAK2A7d4wuleZcj7bNc3r6+uN68ZGGF2YdcuqmU8O+yNnSnxcpQHjOHBIJdVy365VsVHb9Q8Jxy7mWGnuVXqj3kabUKcDtEMc4AsSbbRiRgPCWDfglFPChGZEMCftzuH31Mbs+sajjRoyl+iZZCumnqvkCpKKruVgWTKmPrHrVm27am1XG7WxtbPb2NptgNZj671EMRVEfcz4iERX1JGEEcf+TKpb242atdPYasBqK4VgrswBNhp47pBcUUbcNvE8Vsojpj7ApsNh1+WcaSEzp6snergJBxGeTceUe6ScGcPDluEH2pZsEhvthxFxwH8PMumIXA8i7dbxrA/c8ZRGfN7B89JznTASDWbCSeVUbdQJA970SMRPZnDWxIVQAIbNo5gg8x5mptShzIFvGsTEtc+xx/JKBSY6DaNLNsMOOYI8NsUc14EXYhcCjlPGqZMtusRAx1E4gxlh8VboufswqxZewUhn7gXgYrFsKwwvM+tWMZE8VXm+cKY+5on4Eh2NpuH1IPDmo3jCnIhOiNtpJdIreUgkpNZux4yHPliRkZCi5Shz+AcJuEhGHeJQH3vHHjiR2Q2YpUBAzZiH55S3Qy/2A5bYtEBFp7CjMblJd5iO0QAONxBOD4NesDDLSl5RYxheJ0e4TJdOyJGbzElPZJmzKN0Bmg6OZYY8EbHLfepBf8ifRY5ajIrRlBC+MiQUB4lSuC86jt30PGRmQwRhCaENZtgWNI2q/Blb1q78gWVTNuoG7v1yCRMdxf5gAul7JTdk14C3QEKwBa/l4eASqKeUT4+aiekrOEht+F75ZR6CRJ15eC7JqVPyNNQLHC92icr/XnAuI1LYpk7lXjZaIvUhpW2Eg/l4PoMyzOguh4+9CjTmXcYjaP0V2wnjgEdzUSiQqUXfpsPiSSAXwN7aOucR+WEMiGO+HwdOO3TXX81V3jkJKF/fwjCOVPVbX0V6TxTCmHWIKCmyxq+t75TZE4tKifsB8cOAOut7G5wsrHcfsBGWZNXaGkTl19ryHrRx1eVErq+tFgFchL5WapkmY6FDZbDq9HBz+uY9KdMh5zj2AKpx6KgXaWFeJKMmu1yUyZPQSeQlBc8WQJgBEnZcf8MBrCDQ3oYT+oJgAgA9HSEzLy8Aj0O6wUUfBxcxQIq0rizS03Ir2uE4wgET20kRxELlXS2EkjqlkI29XOyQuSCCxsSfhRH2DsEndF9HnEZGADoOMZ/qETQxjziJf81MNdUqGpXY/DYx2Y7UDkSu6wq5QJRCIj4V3M5kMhoSWzyEjPTa2KOTSBXUpGmv4sFZZTAwKb1icyUhYeJ+uHJBn/0umQscng00XUZrLWGo2BU11B4NN7frW1ajDhhGjJHc8ZBgz+hCHnNi9IIrwrgParvGkDDqwhfF3q7xLpkQCv1Pukh3oNLaeT20n5R4aUoT7C1SigKALC4odJBlwZSTKdhnBEfePCeottoPHZC7+/G/b3/z/NWLz+8+fvrmyw/++49fvfrnz26ffQgfd3/92+0nv1TbVMJojCcekQaNW9vbVmMT4iwlIeFcU4JgN3a4pJ2dSeybjpG+wslBu9trH/RbspSkxERddRNT3A7nYZwNR2oTciF5pGYSCUrEHielSY8L3Fx3ssVt7YoUpfP8+xSVL16//Pz1yz/fq60dlsGs2s7OVrVWfysKg3tvbUkuRWH9QvkXwptVa6tar+eEF2TQUNX+1E891xbXaqvesGppGXfTQF4ltMjSM43xhbmgp0hthYzSEMiPE6YM/DGkSMpWqZAb6BD98idv/vK0IKW9qynFWcA4iWDEYmYykFMfDcfGaHAybHeNcXck4iTj5eTU5N8grFdP86kQVEEQY+87BvR16GNGBe4+FSM8Nwh2psYcMjGXh4VgW0VVCz1wykUrD6IwnqkTySlk1BWSaTVZqbGi1kie9OdS0clYK8SVrbd//2KVgt5IJ8Oy6UtHnoYKHEXK8XXWfvavV1999OrFi7vnP7/96keFGfQ66QMAxDlkU36Yhj2UPN1vFijodCSdeWl9P9dfNFHcoY5DGnBm1x7J65MeIVCtidnkb9TzoeXJiaW/gL5AQe9i1r3hOrHtI2QWCWDnDEO3DbNbZkpQNTzz639++7u7X39x9+nzNx/96fbjP95+8unrl79/8+wPKuvunj6/++kzXeUXG4G0RdxdFf4z5EuIY4hsNETvNr5+/xdGEHIDIIcRy4r09fuf5SYThkpwks0MaC41pGjCkmheWegZOVNSGwp6qYoCAG3RwhqphG5i4Yw62SLvVcVUIu8k41u9cTVmxAgBTX0bdlIUzpTX1dMqqqUeP7bqtbrmKmvEFiaY5Vx/4IUTABkJQz41LIgUtL5ZIZOV6x30B61mPxNRRgwil0QiDNUHSiClaCk9loySUMtRgAvAz4k98Tq0JLbMSmfOlTFTv7KcN11R/la/UhQkUDuOIgWIAv1qP4pnAIaTx7j7+fKBMod/jxRWzSPibNzrFPkwznGhERbZgiD5sjRplipTPSZedBScPRKuyYbAKzxqgjv0w7xCWleAKyNT1J1uFIXRyuKTcRKxQ0DSUFHMzOOpjDxThbrd7KwSQlLw0g916dM7DDvEI7zcq7WZaR+GVw/WhbMvq9pjA8/Vzix39Ujdkk2Qf7oXgfL/vtyrYGtGEQAr8dRX+qk9ubMO4apb0hq1FakoboCwun4L36cR409EJdBfinKWUs4UQn1ib9YVDn2iCGe2/gsOCJj52c2CmUnqcvUHlNDrU5+WvBZaSX4XJwFfzmYKwvXKRYpoLUfkBgBmbgYoipMfQNtQTyhlZlMBC7U01RfPloxeTHlZwx5PMHHJxKo6E1KvbrrWdnWHkEa1VoP/sVOvW9aWePTUk0PloOS65CJmcmDZHzbt/wGUZb71ER0AAA==</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="164" formatCode="yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -464,7 +464,7 @@
       </c>
       <c r="K1" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="L1" s="2" t="inlineStr">
@@ -734,37 +734,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>2</InitRow>
-          <InitCol>1</InitCol>
-          <EndRow>2</EndRow>
-          <EndCol>43</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{625A7808-CC1A-4CC9-8330-A5E540A2B853}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>